--- a/névsor.xlsx
+++ b/névsor.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\ÁZ\12i\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanar\Documents\ÁZ\12I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD2B2A3E-9AD4-44AF-9AD5-D1E17E315F38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{FCDD64FC-6E1F-4982-A405-4D3E5D4A4C7F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Sorszám</t>
   </si>
@@ -82,12 +81,21 @@
   </si>
   <si>
     <t>16.</t>
+  </si>
+  <si>
+    <t>0.</t>
+  </si>
+  <si>
+    <t>Árvai Zoltán</t>
+  </si>
+  <si>
+    <t>kaszás</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,20 +441,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0D13F6-CA06-49B2-B348-A361F2949170}">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,84 +465,95 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/névsor.xlsx
+++ b/névsor.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanar\Documents\ÁZ\12I\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kabe20ik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Sorszám</t>
   </si>
@@ -90,12 +90,18 @@
   </si>
   <si>
     <t>kaszás</t>
+  </si>
+  <si>
+    <t>Kazi</t>
+  </si>
+  <si>
+    <t>Kázmér Bence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -445,7 +451,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,6 +475,12 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">

--- a/névsor.xlsx
+++ b/névsor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kabe20ik\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\kozgefs\diakok\2020IK\sefe20ik\12I-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -92,10 +92,10 @@
     <t>kaszás</t>
   </si>
   <si>
-    <t>Kazi</t>
-  </si>
-  <si>
-    <t>Kázmér Bence</t>
+    <t>Nemes Ferenc</t>
+  </si>
+  <si>
+    <t>Fecó</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,10 +476,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">

--- a/névsor.xlsx
+++ b/névsor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\kozgefs\diakok\2020IK\sefe20ik\12I-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuge20ik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -92,10 +92,10 @@
     <t>kaszás</t>
   </si>
   <si>
-    <t>Nemes Ferenc</t>
-  </si>
-  <si>
-    <t>Fecó</t>
+    <t>Fülöp Gergő</t>
+  </si>
+  <si>
+    <t>Gery</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,12 +475,6 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -505,6 +499,12 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
